--- a/biology/Zoologie/Cerf/Cerf.xlsx
+++ b/biology/Zoologie/Cerf/Cerf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,40 +490,42 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « cerf » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de cervidés :
-le Cerf axis ou Chital (Axis axis)[1],[2] ;
-le Cerf calamian (A. calamianensis)[1] ;
-le Cerf de Kuhl (A. kuhli)[1] ;
-le Cerf cochon (A. porcinus)[1],[3] ;
-le Cerf des marais, Cerf marécageux ou Blastocère des marais (Blastocerus dichotomus)[1],[4] ;
-le Cerf chevreuil ou Chevreuil européen (Capreolus capreolus)[1] ;
-le Cerf de Thorold ou Cerf au museau blanc (Cervus albirostris)[1] ;
-le Cerf du Canada de l'Est ou Wapiti (C. canadensis)[1] ;
-le Cerf élaphe, Cerf commun ou Cerf rouge (C. elaphus)[1],[5] ;
-le Cerf du Cachemire (C. hanglu)[1] ;
-le Cerf sika ou Cerf à pelage étoilé (C. nippon)[1],[6] ;
-le Cerf huppé, Cerf à touffe ou Élaphode (Elaphodus cephalophus)[1],[7] ;
-le Cerf du Père David (Elaphurus davidianus)[1],[8] ;
-les Cerfs des Andes ou Guémals (genre Hippocamelus)[1],[9] ;
-le Cerf andin septentrionnal, Taruca ou Guémal du Pérou (H. antisensis)[1],[9] ;
-le Cerf du Sud andin, Huemul ou Guémal du Chili (H. bisulcus)[1],[9] ;
-le Cerf d'eau, Cerf des marais ou Hydropote chinois (Hydropotes inermis)[1],[10] ;
-le Cerf musqué, Porte-musc ou Chevrotain porte-musc (Moschus moschiferus)[1],[11], qui appartient à la famille des moschidés ;
-le Cerf aboyeur ou Muntiac commun (Muntiacus muntjak)[1],[12] ;
-les Cerf américains ou Cerfs d'Amérique (genre Odocoileus)[1],[13] ;
-le Cerf mulet, Cerf hémione ou Cerf à queue noire (O. hemionus)[1],[13] ;
-le Cerf de Virginie, Cerf à queue blanche ou Cariacou (O. virginianus)[1],[13] ;
-le Cerf des pampas (Ozotoceros bezoarticus)[1] ;
-le Cerf des marais, Cerf de Duvaucel ou Barasingha (Rucervus duvaucelii)[1],[14] ;
-le Cerf d'Eld ou Thamin (R. eldii)[1],[15] ;
-le Cerf de Schomburgk ou Barasingha de Schomburgk (R. schomburgki)[1] ;
-le Cerf du Prince Alfred (Rusa alfredi)[1] ;
-le Cerf sambar des Philippines ou Sambar des Philippines (R. marianna)[1],[16] ;
-le Cerf rusa ou Sambar de la Sonde (R. timorensis)[1],[16] ;
-le Cerf sambar ou Sambar (R. unicolor)[1],[16] ;
-le Cerf souris, Petit chevrotain malais ou Kanchil (Tragulus javanicus)[11], qui appartient à la famille des tragulidés.
+le Cerf axis ou Chital (Axis axis), ;
+le Cerf calamian (A. calamianensis) ;
+le Cerf de Kuhl (A. kuhli) ;
+le Cerf cochon (A. porcinus), ;
+le Cerf des marais, Cerf marécageux ou Blastocère des marais (Blastocerus dichotomus), ;
+le Cerf chevreuil ou Chevreuil européen (Capreolus capreolus) ;
+le Cerf de Thorold ou Cerf au museau blanc (Cervus albirostris) ;
+le Cerf du Canada de l'Est ou Wapiti (C. canadensis) ;
+le Cerf élaphe, Cerf commun ou Cerf rouge (C. elaphus), ;
+le Cerf du Cachemire (C. hanglu) ;
+le Cerf sika ou Cerf à pelage étoilé (C. nippon), ;
+le Cerf huppé, Cerf à touffe ou Élaphode (Elaphodus cephalophus), ;
+le Cerf du Père David (Elaphurus davidianus), ;
+les Cerfs des Andes ou Guémals (genre Hippocamelus), ;
+le Cerf andin septentrionnal, Taruca ou Guémal du Pérou (H. antisensis), ;
+le Cerf du Sud andin, Huemul ou Guémal du Chili (H. bisulcus), ;
+le Cerf d'eau, Cerf des marais ou Hydropote chinois (Hydropotes inermis), ;
+le Cerf musqué, Porte-musc ou Chevrotain porte-musc (Moschus moschiferus) qui appartient à la famille des moschidés ;
+le Cerf aboyeur ou Muntiac commun (Muntiacus muntjak), ;
+les Cerf américains ou Cerfs d'Amérique (genre Odocoileus), ;
+le Cerf mulet, Cerf hémione ou Cerf à queue noire (O. hemionus), ;
+le Cerf de Virginie, Cerf à queue blanche ou Cariacou (O. virginianus), ;
+le Cerf des pampas (Ozotoceros bezoarticus) ;
+le Cerf des marais, Cerf de Duvaucel ou Barasingha (Rucervus duvaucelii), ;
+le Cerf d'Eld ou Thamin (R. eldii), ;
+le Cerf de Schomburgk ou Barasingha de Schomburgk (R. schomburgki) ;
+le Cerf du Prince Alfred (Rusa alfredi) ;
+le Cerf sambar des Philippines ou Sambar des Philippines (R. marianna), ;
+le Cerf rusa ou Sambar de la Sonde (R. timorensis), ;
+le Cerf sambar ou Sambar (R. unicolor), ;
+le Cerf souris, Petit chevrotain malais ou Kanchil (Tragulus javanicus), qui appartient à la famille des tragulidés.
 			Cerf axis (Axis axis).
 			Cerf des marais (Blastocerus dichotomus).
 			Cerf chevreuil (Capreolus capreolus).
